--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/braactsc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437C551-AA90-6143-862E-71076DB86732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3819D96D-D99E-46F3-B2F6-9389718A18C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
+    <sheet name="BRAaCTSC" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,74 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Rethinking FCV/BEV Vehicle Range: A Consumer Value Trade-off Perspective</t>
-  </si>
-  <si>
-    <t>Lin, Zhenhong and Greene, David L.</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/255218962_Rethinking_FCVBEV_Vehicle_Range_A_Consumer_Value_Trade-off_Perspective</t>
-  </si>
-  <si>
-    <t>Page 5, Figure 8</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>To convert 2010 USD to 2012 USD, we multiply by:</t>
-  </si>
-  <si>
-    <t>pixels</t>
-  </si>
-  <si>
-    <t>Cost line separation</t>
-  </si>
-  <si>
-    <t>Range anxiety bar height (avg. driver)</t>
-  </si>
-  <si>
-    <t>Cost per line separation</t>
-  </si>
-  <si>
-    <t>Cost per pixel</t>
-  </si>
-  <si>
-    <t>2010 USD / pixel</t>
-  </si>
-  <si>
-    <t>2010 USD</t>
-  </si>
-  <si>
-    <t>2012 USD</t>
-  </si>
-  <si>
-    <t>2010 USD / line separation</t>
-  </si>
-  <si>
     <t>Shadow cost</t>
   </si>
   <si>
-    <t>Range anxiety cost</t>
-  </si>
-  <si>
-    <t>Although EV battery range and charging time may improve over the model run due to advances</t>
-  </si>
-  <si>
-    <t>in technology, for the U.S. EPS, we do not include these advances in the BAU case, instead</t>
-  </si>
-  <si>
-    <t>leaving them to be governed by the relevant policy lever, so their effects can be more clearly</t>
-  </si>
-  <si>
-    <t>seen.</t>
-  </si>
-  <si>
     <t>BRAaCTSC BAU Range Anxiety and Charging Time Shadow Cost</t>
   </si>
   <si>
@@ -114,6 +56,12 @@
   </si>
   <si>
     <t>Cost ($/vehicle)</t>
+  </si>
+  <si>
+    <t>In the US, we set this value to 0.</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -123,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,27 +87,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,28 +105,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -206,61 +132,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>90271</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="2266950"/>
-          <a:ext cx="10058400" cy="6014821"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,447 +397,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
+      <selection activeCell="A4" sqref="A4:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>1.0529130131709286</v>
-      </c>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>5000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <f>B3/B2</f>
-        <v>52.083333333333336</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B1*B4</f>
-        <v>3541.666666666667</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7">
-        <f>B5*About!A21</f>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4">
         <v>2018</v>
       </c>
       <c r="C1">
         <v>2019</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <v>2020</v>
       </c>
       <c r="E1">
         <v>2021</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="4">
         <v>2022</v>
       </c>
       <c r="G1">
         <v>2023</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="4">
         <v>2024</v>
       </c>
       <c r="I1">
         <v>2025</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="4">
         <v>2026</v>
       </c>
       <c r="K1">
         <v>2027</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="4">
         <v>2028</v>
       </c>
       <c r="M1">
         <v>2029</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="4">
         <v>2030</v>
       </c>
       <c r="O1">
         <v>2031</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="4">
         <v>2032</v>
       </c>
       <c r="Q1">
         <v>2033</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="4">
         <v>2034</v>
       </c>
       <c r="S1">
         <v>2035</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="4">
         <v>2036</v>
       </c>
       <c r="U1">
         <v>2037</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="4">
         <v>2038</v>
       </c>
       <c r="W1">
         <v>2039</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="4">
         <v>2040</v>
       </c>
       <c r="Y1">
         <v>2041</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="4">
         <v>2042</v>
       </c>
       <c r="AA1">
         <v>2043</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="4">
         <v>2044</v>
       </c>
       <c r="AC1">
         <v>2045</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AD1" s="4">
         <v>2046</v>
       </c>
       <c r="AE1">
         <v>2047</v>
       </c>
-      <c r="AF1" s="6">
+      <c r="AF1" s="4">
         <v>2048</v>
       </c>
       <c r="AG1">
         <v>2049</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AH1" s="4">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5">
-        <f>Data!B6</f>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <f>$B2</f>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:AH2" si="0">$B2</f>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="E2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="H2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="J2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="K2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="O2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="P2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="Q2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="R2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="S2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="T2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="U2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="V2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="W2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="X2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="Y2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="Z2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="AA2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="AB2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="AC2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="AD2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="AE2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="AF2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="AG2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
-      </c>
-      <c r="AH2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
